--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dll3-Notch3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dll3-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,25 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Dll3</t>
   </si>
   <si>
     <t>Notch3</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.10412342940316</v>
+        <v>1.122431</v>
       </c>
       <c r="H2">
-        <v>1.10412342940316</v>
+        <v>2.244862</v>
       </c>
       <c r="I2">
-        <v>0.5815375518385475</v>
+        <v>0.3274916767748757</v>
       </c>
       <c r="J2">
-        <v>0.5815375518385475</v>
+        <v>0.252317076295933</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.97368501288477</v>
+        <v>4.533117</v>
       </c>
       <c r="N2">
-        <v>3.97368501288477</v>
+        <v>9.066234</v>
       </c>
       <c r="O2">
-        <v>0.03734494411532919</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P2">
-        <v>0.03734494411532919</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q2">
-        <v>4.387438723794273</v>
+        <v>5.088111047427001</v>
       </c>
       <c r="R2">
-        <v>4.387438723794273</v>
+        <v>20.352444189708</v>
       </c>
       <c r="S2">
-        <v>0.02171748737437591</v>
+        <v>0.01291089741986045</v>
       </c>
       <c r="T2">
-        <v>0.02171748737437591</v>
+        <v>0.009220507139354813</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.10412342940316</v>
+        <v>1.122431</v>
       </c>
       <c r="H3">
-        <v>1.10412342940316</v>
+        <v>2.244862</v>
       </c>
       <c r="I3">
-        <v>0.5815375518385475</v>
+        <v>0.3274916767748757</v>
       </c>
       <c r="J3">
-        <v>0.5815375518385475</v>
+        <v>0.252317076295933</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.56895760325</v>
+        <v>2.719193666666667</v>
       </c>
       <c r="N3">
-        <v>2.56895760325</v>
+        <v>8.157581</v>
       </c>
       <c r="O3">
-        <v>0.02414322670693357</v>
+        <v>0.02364827000997559</v>
       </c>
       <c r="P3">
-        <v>0.02414322670693357</v>
+        <v>0.03288081968556397</v>
       </c>
       <c r="Q3">
-        <v>2.836446278891713</v>
+        <v>3.052107266470334</v>
       </c>
       <c r="R3">
-        <v>2.836446278891713</v>
+        <v>18.312643598822</v>
       </c>
       <c r="S3">
-        <v>0.01404019295263319</v>
+        <v>0.007744611598391912</v>
       </c>
       <c r="T3">
-        <v>0.01404019295263319</v>
+        <v>0.00829639228927526</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.10412342940316</v>
+        <v>1.122431</v>
       </c>
       <c r="H4">
-        <v>1.10412342940316</v>
+        <v>2.244862</v>
       </c>
       <c r="I4">
-        <v>0.5815375518385475</v>
+        <v>0.3274916767748757</v>
       </c>
       <c r="J4">
-        <v>0.5815375518385475</v>
+        <v>0.252317076295933</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>7.91981537628716</v>
+        <v>0.063204</v>
       </c>
       <c r="N4">
-        <v>7.91981537628716</v>
+        <v>0.189612</v>
       </c>
       <c r="O4">
-        <v>0.07443092788485837</v>
+        <v>0.0005496722341011987</v>
       </c>
       <c r="P4">
-        <v>0.07443092788485837</v>
+        <v>0.0007642704353434132</v>
       </c>
       <c r="Q4">
-        <v>8.744453713506058</v>
+        <v>0.07094212892400001</v>
       </c>
       <c r="R4">
-        <v>8.744453713506058</v>
+        <v>0.4256527735440001</v>
       </c>
       <c r="S4">
-        <v>0.04328437958323202</v>
+        <v>0.0001800130816223936</v>
       </c>
       <c r="T4">
-        <v>0.04328437958323202</v>
+        <v>0.0001928384817452699</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.10412342940316</v>
+        <v>1.122431</v>
       </c>
       <c r="H5">
-        <v>1.10412342940316</v>
+        <v>2.244862</v>
       </c>
       <c r="I5">
-        <v>0.5815375518385475</v>
+        <v>0.3274916767748757</v>
       </c>
       <c r="J5">
-        <v>0.5815375518385475</v>
+        <v>0.252317076295933</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>91.942441171791</v>
+        <v>0.1410863333333333</v>
       </c>
       <c r="N5">
-        <v>91.942441171791</v>
+        <v>0.4232589999999999</v>
       </c>
       <c r="O5">
-        <v>0.8640809012928788</v>
+        <v>0.001226998924822476</v>
       </c>
       <c r="P5">
-        <v>0.8640809012928788</v>
+        <v>0.001706033057997477</v>
       </c>
       <c r="Q5">
-        <v>101.5158034542962</v>
+        <v>0.1583596742096667</v>
       </c>
       <c r="R5">
-        <v>101.5158034542962</v>
+        <v>0.9501580452580001</v>
       </c>
       <c r="S5">
-        <v>0.5024954919283063</v>
+        <v>0.0004018319352910822</v>
       </c>
       <c r="T5">
-        <v>0.5024954919283063</v>
+        <v>0.0004304612732581333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.794504485359081</v>
+        <v>1.122431</v>
       </c>
       <c r="H6">
-        <v>0.794504485359081</v>
+        <v>2.244862</v>
       </c>
       <c r="I6">
-        <v>0.4184624481614525</v>
+        <v>0.3274916767748757</v>
       </c>
       <c r="J6">
-        <v>0.4184624481614525</v>
+        <v>0.252317076295933</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.97368501288477</v>
+        <v>15.202168</v>
       </c>
       <c r="N6">
-        <v>3.97368501288477</v>
+        <v>45.606504</v>
       </c>
       <c r="O6">
-        <v>0.03734494411532919</v>
+        <v>0.1322101393541825</v>
       </c>
       <c r="P6">
-        <v>0.03734494411532919</v>
+        <v>0.1838264596469164</v>
       </c>
       <c r="Q6">
-        <v>3.157110566141107</v>
+        <v>17.063384630408</v>
       </c>
       <c r="R6">
-        <v>3.157110566141107</v>
+        <v>102.380307782448</v>
       </c>
       <c r="S6">
-        <v>0.01562745674095328</v>
+        <v>0.04329772022374122</v>
       </c>
       <c r="T6">
-        <v>0.01562745674095328</v>
+        <v>0.04638255484394225</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.794504485359081</v>
+        <v>1.122431</v>
       </c>
       <c r="H7">
-        <v>0.794504485359081</v>
+        <v>2.244862</v>
       </c>
       <c r="I7">
-        <v>0.4184624481614525</v>
+        <v>0.3274916767748757</v>
       </c>
       <c r="J7">
-        <v>0.4184624481614525</v>
+        <v>0.252317076295933</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.56895760325</v>
+        <v>92.32611850000001</v>
       </c>
       <c r="N7">
-        <v>2.56895760325</v>
+        <v>184.652237</v>
       </c>
       <c r="O7">
-        <v>0.02414322670693357</v>
+        <v>0.802941330007389</v>
       </c>
       <c r="P7">
-        <v>0.02414322670693357</v>
+        <v>0.7442790833867324</v>
       </c>
       <c r="Q7">
-        <v>2.04104833847944</v>
+        <v>103.6296975140735</v>
       </c>
       <c r="R7">
-        <v>2.04104833847944</v>
+        <v>414.5187900562941</v>
       </c>
       <c r="S7">
-        <v>0.01010303375430039</v>
+        <v>0.2629566025159686</v>
       </c>
       <c r="T7">
-        <v>0.01010303375430039</v>
+        <v>0.1877943222683572</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.794504485359081</v>
+        <v>0.4381776666666666</v>
       </c>
       <c r="H8">
-        <v>0.794504485359081</v>
+        <v>1.314533</v>
       </c>
       <c r="I8">
-        <v>0.4184624481614525</v>
+        <v>0.1278470915200749</v>
       </c>
       <c r="J8">
-        <v>0.4184624481614525</v>
+        <v>0.1477503397779114</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.91981537628716</v>
+        <v>4.533117</v>
       </c>
       <c r="N8">
-        <v>7.91981537628716</v>
+        <v>9.066234</v>
       </c>
       <c r="O8">
-        <v>0.07443092788485837</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P8">
-        <v>0.07443092788485837</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q8">
-        <v>6.292328839675967</v>
+        <v>1.986310629787</v>
       </c>
       <c r="R8">
-        <v>6.292328839675967</v>
+        <v>11.917863778722</v>
       </c>
       <c r="S8">
-        <v>0.03114654830162636</v>
+        <v>0.00504019125096076</v>
       </c>
       <c r="T8">
-        <v>0.03114654830162636</v>
+        <v>0.005399289983712808</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4381776666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.314533</v>
+      </c>
+      <c r="I9">
+        <v>0.1278470915200749</v>
+      </c>
+      <c r="J9">
+        <v>0.1477503397779114</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N9">
+        <v>8.157581</v>
+      </c>
+      <c r="O9">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P9">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q9">
+        <v>1.191489936074778</v>
+      </c>
+      <c r="R9">
+        <v>10.723409424673</v>
+      </c>
+      <c r="S9">
+        <v>0.003023362540256791</v>
+      </c>
+      <c r="T9">
+        <v>0.004858152280718313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4381776666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.314533</v>
+      </c>
+      <c r="I10">
+        <v>0.1278470915200749</v>
+      </c>
+      <c r="J10">
+        <v>0.1477503397779114</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.063204</v>
+      </c>
+      <c r="N10">
+        <v>0.189612</v>
+      </c>
+      <c r="O10">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P10">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q10">
+        <v>0.027694581244</v>
+      </c>
+      <c r="R10">
+        <v>0.249251231196</v>
+      </c>
+      <c r="S10">
+        <v>7.027399641917998E-05</v>
+      </c>
+      <c r="T10">
+        <v>0.0001129212165042015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.4381776666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.314533</v>
+      </c>
+      <c r="I11">
+        <v>0.1278470915200749</v>
+      </c>
+      <c r="J11">
+        <v>0.1477503397779114</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P11">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q11">
+        <v>0.06182088033855554</v>
+      </c>
+      <c r="R11">
+        <v>0.5563879230469999</v>
+      </c>
+      <c r="S11">
+        <v>0.0001568682438368125</v>
+      </c>
+      <c r="T11">
+        <v>0.0002520669639914764</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4381776666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.314533</v>
+      </c>
+      <c r="I12">
+        <v>0.1278470915200749</v>
+      </c>
+      <c r="J12">
+        <v>0.1477503397779114</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>15.202168</v>
+      </c>
+      <c r="N12">
+        <v>45.606504</v>
+      </c>
+      <c r="O12">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P12">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q12">
+        <v>6.661250502514666</v>
+      </c>
+      <c r="R12">
+        <v>59.951254522632</v>
+      </c>
+      <c r="S12">
+        <v>0.01690268178589603</v>
+      </c>
+      <c r="T12">
+        <v>0.02716042187300241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.794504485359081</v>
-      </c>
-      <c r="H9">
-        <v>0.794504485359081</v>
-      </c>
-      <c r="I9">
-        <v>0.4184624481614525</v>
-      </c>
-      <c r="J9">
-        <v>0.4184624481614525</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>91.942441171791</v>
-      </c>
-      <c r="N9">
-        <v>91.942441171791</v>
-      </c>
-      <c r="O9">
-        <v>0.8640809012928788</v>
-      </c>
-      <c r="P9">
-        <v>0.8640809012928788</v>
-      </c>
-      <c r="Q9">
-        <v>73.0486819058514</v>
-      </c>
-      <c r="R9">
-        <v>73.0486819058514</v>
-      </c>
-      <c r="S9">
-        <v>0.3615854093645725</v>
-      </c>
-      <c r="T9">
-        <v>0.3615854093645725</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4381776666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.314533</v>
+      </c>
+      <c r="I13">
+        <v>0.1278470915200749</v>
+      </c>
+      <c r="J13">
+        <v>0.1477503397779114</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N13">
+        <v>184.652237</v>
+      </c>
+      <c r="O13">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P13">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q13">
+        <v>40.45524317672017</v>
+      </c>
+      <c r="R13">
+        <v>242.731459060321</v>
+      </c>
+      <c r="S13">
+        <v>0.1026537137027053</v>
+      </c>
+      <c r="T13">
+        <v>0.1099674874599821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1913536666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.5740609999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.05583125657941316</v>
+      </c>
+      <c r="J14">
+        <v>0.06452307230267142</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.533117</v>
+      </c>
+      <c r="N14">
+        <v>9.066234</v>
+      </c>
+      <c r="O14">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P14">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q14">
+        <v>0.8674285593789999</v>
+      </c>
+      <c r="R14">
+        <v>5.204571356273999</v>
+      </c>
+      <c r="S14">
+        <v>0.002201068538954735</v>
+      </c>
+      <c r="T14">
+        <v>0.002357888168148048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1913536666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.5740609999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.05583125657941316</v>
+      </c>
+      <c r="J15">
+        <v>0.06452307230267142</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N15">
+        <v>8.157581</v>
+      </c>
+      <c r="O15">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P15">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q15">
+        <v>0.5203276784934444</v>
+      </c>
+      <c r="R15">
+        <v>4.682949106441</v>
+      </c>
+      <c r="S15">
+        <v>0.001320312630586188</v>
+      </c>
+      <c r="T15">
+        <v>0.002121571505942746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1913536666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.5740609999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.05583125657941316</v>
+      </c>
+      <c r="J16">
+        <v>0.06452307230267142</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.063204</v>
+      </c>
+      <c r="N16">
+        <v>0.189612</v>
+      </c>
+      <c r="O16">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P16">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q16">
+        <v>0.012094317148</v>
+      </c>
+      <c r="R16">
+        <v>0.108848854332</v>
+      </c>
+      <c r="S16">
+        <v>3.068889153668328E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.931307655845721E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1913536666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.5740609999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.05583125657941316</v>
+      </c>
+      <c r="J17">
+        <v>0.06452307230267142</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P17">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q17">
+        <v>0.02699738719988888</v>
+      </c>
+      <c r="R17">
+        <v>0.2429764847989999</v>
+      </c>
+      <c r="S17">
+        <v>6.850489179442771E-05</v>
+      </c>
+      <c r="T17">
+        <v>0.0001100784943519188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1913536666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.5740609999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.05583125657941316</v>
+      </c>
+      <c r="J18">
+        <v>0.06452307230267142</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>15.202168</v>
+      </c>
+      <c r="N18">
+        <v>45.606504</v>
+      </c>
+      <c r="O18">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P18">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q18">
+        <v>2.908990588082666</v>
+      </c>
+      <c r="R18">
+        <v>26.180915292744</v>
+      </c>
+      <c r="S18">
+        <v>0.007381458212683333</v>
+      </c>
+      <c r="T18">
+        <v>0.0118610479469421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1913536666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.5740609999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.05583125657941316</v>
+      </c>
+      <c r="J19">
+        <v>0.06452307230267142</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N19">
+        <v>184.652237</v>
+      </c>
+      <c r="O19">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P19">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q19">
+        <v>17.66694130407616</v>
+      </c>
+      <c r="R19">
+        <v>106.001647824457</v>
+      </c>
+      <c r="S19">
+        <v>0.04482922341385779</v>
+      </c>
+      <c r="T19">
+        <v>0.04802317311072814</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.3612136666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.083641</v>
+      </c>
+      <c r="I20">
+        <v>0.1053913063437019</v>
+      </c>
+      <c r="J20">
+        <v>0.1217986356731064</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.533117</v>
+      </c>
+      <c r="N20">
+        <v>9.066234</v>
+      </c>
+      <c r="O20">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P20">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q20">
+        <v>1.637423812999</v>
+      </c>
+      <c r="R20">
+        <v>9.824542877994</v>
+      </c>
+      <c r="S20">
+        <v>0.004154903594951492</v>
+      </c>
+      <c r="T20">
+        <v>0.004450928198257884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.3612136666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.083641</v>
+      </c>
+      <c r="I21">
+        <v>0.1053913063437019</v>
+      </c>
+      <c r="J21">
+        <v>0.1217986356731064</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N21">
+        <v>8.157581</v>
+      </c>
+      <c r="O21">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P21">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q21">
+        <v>0.9822099147134447</v>
+      </c>
+      <c r="R21">
+        <v>8.839889232421001</v>
+      </c>
+      <c r="S21">
+        <v>0.002492322069119916</v>
+      </c>
+      <c r="T21">
+        <v>0.004004838977515112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.3612136666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.083641</v>
+      </c>
+      <c r="I22">
+        <v>0.1053913063437019</v>
+      </c>
+      <c r="J22">
+        <v>0.1217986356731064</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.063204</v>
+      </c>
+      <c r="N22">
+        <v>0.189612</v>
+      </c>
+      <c r="O22">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P22">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q22">
+        <v>0.022830148588</v>
+      </c>
+      <c r="R22">
+        <v>0.205471337292</v>
+      </c>
+      <c r="S22">
+        <v>5.793067481278646E-05</v>
+      </c>
+      <c r="T22">
+        <v>9.308709631011884E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.3612136666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.083641</v>
+      </c>
+      <c r="I23">
+        <v>0.1053913063437019</v>
+      </c>
+      <c r="J23">
+        <v>0.1217986356731064</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P23">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q23">
+        <v>0.05096231177988889</v>
+      </c>
+      <c r="R23">
+        <v>0.4586608060189999</v>
+      </c>
+      <c r="S23">
+        <v>0.0001293150195693584</v>
+      </c>
+      <c r="T23">
+        <v>0.0002077924988773104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.3612136666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.083641</v>
+      </c>
+      <c r="I24">
+        <v>0.1053913063437019</v>
+      </c>
+      <c r="J24">
+        <v>0.1217986356731064</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>15.202168</v>
+      </c>
+      <c r="N24">
+        <v>45.606504</v>
+      </c>
+      <c r="O24">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P24">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q24">
+        <v>5.491230844562668</v>
+      </c>
+      <c r="R24">
+        <v>49.42107760106401</v>
+      </c>
+      <c r="S24">
+        <v>0.01393379929842017</v>
+      </c>
+      <c r="T24">
+        <v>0.02238981198561178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.3612136666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.083641</v>
+      </c>
+      <c r="I25">
+        <v>0.1053913063437019</v>
+      </c>
+      <c r="J25">
+        <v>0.1217986356731064</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N25">
+        <v>184.652237</v>
+      </c>
+      <c r="O25">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P25">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q25">
+        <v>33.34945579248618</v>
+      </c>
+      <c r="R25">
+        <v>200.096734754917</v>
+      </c>
+      <c r="S25">
+        <v>0.08462303568682819</v>
+      </c>
+      <c r="T25">
+        <v>0.09065217691653424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.051528333333333</v>
+      </c>
+      <c r="H26">
+        <v>3.154585</v>
+      </c>
+      <c r="I26">
+        <v>0.3068044067382527</v>
+      </c>
+      <c r="J26">
+        <v>0.354567748096322</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.533117</v>
+      </c>
+      <c r="N26">
+        <v>9.066234</v>
+      </c>
+      <c r="O26">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P26">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q26">
+        <v>4.766700963815</v>
+      </c>
+      <c r="R26">
+        <v>28.60020578289</v>
+      </c>
+      <c r="S26">
+        <v>0.01209533097869133</v>
+      </c>
+      <c r="T26">
+        <v>0.01295708756894705</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.051528333333333</v>
+      </c>
+      <c r="H27">
+        <v>3.154585</v>
+      </c>
+      <c r="I27">
+        <v>0.3068044067382527</v>
+      </c>
+      <c r="J27">
+        <v>0.354567748096322</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N27">
+        <v>8.157581</v>
+      </c>
+      <c r="O27">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P27">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q27">
+        <v>2.859309184320556</v>
+      </c>
+      <c r="R27">
+        <v>25.733782658885</v>
+      </c>
+      <c r="S27">
+        <v>0.007255393450796573</v>
+      </c>
+      <c r="T27">
+        <v>0.01165847819147163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.051528333333333</v>
+      </c>
+      <c r="H28">
+        <v>3.154585</v>
+      </c>
+      <c r="I28">
+        <v>0.3068044067382527</v>
+      </c>
+      <c r="J28">
+        <v>0.354567748096322</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.063204</v>
+      </c>
+      <c r="N28">
+        <v>0.189612</v>
+      </c>
+      <c r="O28">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P28">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q28">
+        <v>0.06646079678</v>
+      </c>
+      <c r="R28">
+        <v>0.59814717102</v>
+      </c>
+      <c r="S28">
+        <v>0.0001686418636839082</v>
+      </c>
+      <c r="T28">
+        <v>0.0002709856471963097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.051528333333333</v>
+      </c>
+      <c r="H29">
+        <v>3.154585</v>
+      </c>
+      <c r="I29">
+        <v>0.3068044067382527</v>
+      </c>
+      <c r="J29">
+        <v>0.354567748096322</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P29">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q29">
+        <v>0.1483562769461111</v>
+      </c>
+      <c r="R29">
+        <v>1.335206492515</v>
+      </c>
+      <c r="S29">
+        <v>0.0003764486771986335</v>
+      </c>
+      <c r="T29">
+        <v>0.0006049042995520474</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.051528333333333</v>
+      </c>
+      <c r="H30">
+        <v>3.154585</v>
+      </c>
+      <c r="I30">
+        <v>0.3068044067382527</v>
+      </c>
+      <c r="J30">
+        <v>0.354567748096322</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>15.202168</v>
+      </c>
+      <c r="N30">
+        <v>45.606504</v>
+      </c>
+      <c r="O30">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P30">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q30">
+        <v>15.98551038009333</v>
+      </c>
+      <c r="R30">
+        <v>143.86959342084</v>
+      </c>
+      <c r="S30">
+        <v>0.04056265336934169</v>
+      </c>
+      <c r="T30">
+        <v>0.06517893383752656</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.051528333333333</v>
+      </c>
+      <c r="H31">
+        <v>3.154585</v>
+      </c>
+      <c r="I31">
+        <v>0.3068044067382527</v>
+      </c>
+      <c r="J31">
+        <v>0.354567748096322</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N31">
+        <v>184.652237</v>
+      </c>
+      <c r="O31">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P31">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q31">
+        <v>97.08352950944085</v>
+      </c>
+      <c r="R31">
+        <v>582.501177056645</v>
+      </c>
+      <c r="S31">
+        <v>0.2463459383985406</v>
+      </c>
+      <c r="T31">
+        <v>0.2638973585516284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.262653</v>
+      </c>
+      <c r="H32">
+        <v>0.5253060000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.07663426204368146</v>
+      </c>
+      <c r="J32">
+        <v>0.05904312785405578</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4.533117</v>
+      </c>
+      <c r="N32">
+        <v>9.066234</v>
+      </c>
+      <c r="O32">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P32">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q32">
+        <v>1.190636779401</v>
+      </c>
+      <c r="R32">
+        <v>4.762547117604</v>
+      </c>
+      <c r="S32">
+        <v>0.003021197686110421</v>
+      </c>
+      <c r="T32">
+        <v>0.002157632729025624</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.262653</v>
+      </c>
+      <c r="H33">
+        <v>0.5253060000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.07663426204368146</v>
+      </c>
+      <c r="J33">
+        <v>0.05904312785405578</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N33">
+        <v>8.157581</v>
+      </c>
+      <c r="O33">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P33">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q33">
+        <v>0.7142043741310001</v>
+      </c>
+      <c r="R33">
+        <v>4.285226244786001</v>
+      </c>
+      <c r="S33">
+        <v>0.001812267720824202</v>
+      </c>
+      <c r="T33">
+        <v>0.001941386440640908</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.262653</v>
+      </c>
+      <c r="H34">
+        <v>0.5253060000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.07663426204368146</v>
+      </c>
+      <c r="J34">
+        <v>0.05904312785405578</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.063204</v>
+      </c>
+      <c r="N34">
+        <v>0.189612</v>
+      </c>
+      <c r="O34">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P34">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q34">
+        <v>0.016600720212</v>
+      </c>
+      <c r="R34">
+        <v>0.09960432127200002</v>
+      </c>
+      <c r="S34">
+        <v>4.212372602624708E-05</v>
+      </c>
+      <c r="T34">
+        <v>4.512491702905601E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.262653</v>
+      </c>
+      <c r="H35">
+        <v>0.5253060000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.07663426204368146</v>
+      </c>
+      <c r="J35">
+        <v>0.05904312785405578</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P35">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q35">
+        <v>0.037056748709</v>
+      </c>
+      <c r="R35">
+        <v>0.222340492254</v>
+      </c>
+      <c r="S35">
+        <v>9.403015713216099E-05</v>
+      </c>
+      <c r="T35">
+        <v>0.0001007295279665908</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.262653</v>
+      </c>
+      <c r="H36">
+        <v>0.5253060000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.07663426204368146</v>
+      </c>
+      <c r="J36">
+        <v>0.05904312785405578</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>15.202168</v>
+      </c>
+      <c r="N36">
+        <v>45.606504</v>
+      </c>
+      <c r="O36">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P36">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q36">
+        <v>3.992895031704001</v>
+      </c>
+      <c r="R36">
+        <v>23.957370190224</v>
+      </c>
+      <c r="S36">
+        <v>0.01013182646410007</v>
+      </c>
+      <c r="T36">
+        <v>0.01085368915989131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.262653</v>
+      </c>
+      <c r="H37">
+        <v>0.5253060000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.07663426204368146</v>
+      </c>
+      <c r="J37">
+        <v>0.05904312785405578</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N37">
+        <v>184.652237</v>
+      </c>
+      <c r="O37">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P37">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q37">
+        <v>24.2497320023805</v>
+      </c>
+      <c r="R37">
+        <v>96.99892800952202</v>
+      </c>
+      <c r="S37">
+        <v>0.06153281628948835</v>
+      </c>
+      <c r="T37">
+        <v>0.04394456507950228</v>
       </c>
     </row>
   </sheetData>
